--- a/RestAssuredFramework/data/Testdata.xlsx
+++ b/RestAssuredFramework/data/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14775" windowHeight="7380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14772" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Sam</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>statusCode</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>InvalidPass name as null</t>
+  </si>
+  <si>
+    <t>HR</t>
   </si>
 </sst>
 </file>
@@ -398,20 +407,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -428,7 +437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -445,7 +454,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -460,6 +469,20 @@
       </c>
       <c r="E3" s="1">
         <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
